--- a/CP/src/results.xlsx
+++ b/CP/src/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\CDMO\CP\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F504B3-1D44-4458-AB68-8C5654EBD401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486C94F-B7FA-4BDF-BFEE-CCB7CA4231D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{C6301657-AF8D-4314-B3CD-6F8E2F40A535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6301657-AF8D-4314-B3CD-6F8E2F40A535}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
   <si>
     <t>dwd</t>
   </si>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829B8161-D891-4D73-AF55-741739BF7B41}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +703,9 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
       <c r="D22">
         <v>42</v>
       </c>
@@ -714,6 +717,9 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
@@ -736,6 +742,12 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
       <c r="D25">
         <v>0.6</v>
       </c>
@@ -744,6 +756,9 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
       <c r="D26">
         <v>3.1</v>
       </c>
@@ -816,35 +831,59 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="D35">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="D36">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="C37">
+        <v>7.9</v>
+      </c>
+      <c r="D37">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
